--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFD3A0-9C7F-4C79-8914-9095361367CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="EoBSDwEC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -110,13 +122,106 @@
   </si>
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>EPS bases their elasticity assumptions off of the assumptions used for the EIA's "Annual Energy Outlook"</t>
+  </si>
+  <si>
+    <t>This is a good source that is commonly used.</t>
+  </si>
+  <si>
+    <t>Texas Specific Data:</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy06osti/39512.pdf</t>
+  </si>
+  <si>
+    <t>A 2006 NREL study about the elasticity of energy use by different regions</t>
+  </si>
+  <si>
+    <t>Takeaways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study has state-level results, but they tend to have high uncertainty and wide standard deviations. </t>
+  </si>
+  <si>
+    <t>The study also has regional results, which are more robust. Texas is the "West South Central" (WSC) region with Oklahoma, Lousiana, and Arkansas.</t>
+  </si>
+  <si>
+    <t>Assume that the WSC region results will reflect Texas better than the national results. Assume that the state-level results are too uncertain to use here.</t>
+  </si>
+  <si>
+    <t>short run elasticity for residential electricity</t>
+  </si>
+  <si>
+    <t>short run elasticity for commercial electricity</t>
+  </si>
+  <si>
+    <t>short run elasticity for residential natural gas</t>
+  </si>
+  <si>
+    <t>West South Central Results</t>
+  </si>
+  <si>
+    <t>National Results (table 3.4)</t>
+  </si>
+  <si>
+    <t>short run elasticity for residential electricity (Fig 4.5)</t>
+  </si>
+  <si>
+    <t>short run elasticity for commercial electricity (Fig 4.8)</t>
+  </si>
+  <si>
+    <t>short run elasticity for residential natural gas (Fig 4.12)</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>res elec</t>
+  </si>
+  <si>
+    <t>comm elec</t>
+  </si>
+  <si>
+    <t>res gas</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 54% of national</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 55% of national</t>
+  </si>
+  <si>
+    <t>Texas elasticity is 25% of national</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>since Texas vs. National adjustments for electricity are basically equal (.54/.55) for residential/commercial, assume that the adjustments for residential/commercial are also similar for natural gas</t>
+  </si>
+  <si>
+    <t>assume that the elasticity for other fuels (coal, diesel, etc.) are the same as for natural gas</t>
+  </si>
+  <si>
+    <t>Then:</t>
+  </si>
+  <si>
+    <t>OLD EPS VALUES</t>
+  </si>
+  <si>
+    <t>NEW TEXAS VALUES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +245,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,12 +277,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,12 +304,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -269,6 +441,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +493,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,10 +685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -578,19 +786,521 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{F043901A-6B38-4B0A-B874-15A9FC4DA8F6}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{EE3700A4-DDBA-4CB1-8807-5FFA26FCC632}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D961A-B31E-4634-BE91-403836ABDD5E}">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="8" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-0.24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>-0.12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-0.115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>A18/A13</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f t="shared" ref="A24:A25" si="0">A19/A14</f>
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="F33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="C35" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F35">
+        <f>B35*A23</f>
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="G35">
+        <f>F35</f>
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="H35">
+        <f>D35*A24</f>
+        <v>-0.13690476190476192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C36" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D36" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F36">
+        <f>B36*$A$25</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G36">
+        <f>F36</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <f>D36*$A$25</f>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C37" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D37" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F44" si="1">B37*$A$25</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G44" si="2">F37</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H44" si="3">D37*$A$25</f>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C38" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D38" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C39" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D39" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C40" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D40" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C41" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D41" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C42" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D42" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C43" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D43" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C44" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="D44" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25 B28:B29">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{4EBBD5D9-22C0-437B-B579-D5BAE7314C9C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -617,140 +1327,170 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.3</v>
-      </c>
-      <c r="C2">
-        <v>-0.3</v>
-      </c>
-      <c r="D2">
-        <v>-0.25</v>
+      <c r="B2" s="6">
+        <f>'Texas Notes'!F35</f>
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'Texas Notes'!G35</f>
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <f>'Texas Notes'!H35</f>
+        <v>-0.13690476190476192</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-0.15</v>
-      </c>
-      <c r="C3">
-        <v>-0.15</v>
-      </c>
-      <c r="D3">
-        <v>-0.25</v>
+      <c r="B3" s="6">
+        <f>'Texas Notes'!F36</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'Texas Notes'!G36</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <f>'Texas Notes'!H36</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.15</v>
-      </c>
-      <c r="C4">
-        <v>-0.15</v>
-      </c>
-      <c r="D4">
-        <v>-0.25</v>
+      <c r="B4" s="6">
+        <f>'Texas Notes'!F37</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'Texas Notes'!G37</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'Texas Notes'!H37</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>-0.15</v>
-      </c>
-      <c r="C5">
-        <v>-0.15</v>
-      </c>
-      <c r="D5">
-        <v>-0.25</v>
+      <c r="B5" s="6">
+        <f>'Texas Notes'!F38</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'Texas Notes'!G38</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'Texas Notes'!H38</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>-0.15</v>
-      </c>
-      <c r="C6">
-        <v>-0.15</v>
-      </c>
-      <c r="D6">
-        <v>-0.25</v>
+      <c r="B6" s="6">
+        <f>'Texas Notes'!F39</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'Texas Notes'!G39</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'Texas Notes'!H39</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>-0.15</v>
-      </c>
-      <c r="C7">
-        <v>-0.15</v>
-      </c>
-      <c r="D7">
-        <v>-0.25</v>
+      <c r="B7" s="6">
+        <f>'Texas Notes'!F40</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'Texas Notes'!G40</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'Texas Notes'!H40</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>-0.15</v>
-      </c>
-      <c r="C8">
-        <v>-0.15</v>
-      </c>
-      <c r="D8">
-        <v>-0.25</v>
+      <c r="B8" s="6">
+        <f>'Texas Notes'!F41</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'Texas Notes'!G41</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'Texas Notes'!H41</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>-0.15</v>
-      </c>
-      <c r="C9">
-        <v>-0.15</v>
-      </c>
-      <c r="D9">
-        <v>-0.25</v>
+      <c r="B9" s="6">
+        <f>'Texas Notes'!F42</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'Texas Notes'!G42</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'Texas Notes'!H42</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>-0.15</v>
-      </c>
-      <c r="C10">
-        <v>-0.15</v>
-      </c>
-      <c r="D10">
-        <v>-0.25</v>
+      <c r="B10" s="6">
+        <f>'Texas Notes'!F43</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'Texas Notes'!G43</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'Texas Notes'!H43</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>-0.15</v>
-      </c>
-      <c r="C11">
-        <v>-0.15</v>
-      </c>
-      <c r="D11">
-        <v>-0.25</v>
+      <c r="B11" s="6">
+        <f>'Texas Notes'!F44</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'Texas Notes'!G44</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <f>'Texas Notes'!H44</f>
+        <v>-6.25E-2</v>
       </c>
     </row>
   </sheetData>
